--- a/info/target_type.xlsx
+++ b/info/target_type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/placenameday/R study/yajuan_phd/info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\yajuan_phd\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8291F630-33CB-0F46-89F7-F193EB3F9CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CDED6A-3C67-4972-8258-79A1D861FCE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12320" yWindow="4740" windowWidth="17840" windowHeight="21660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -640,323 +640,323 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>trail</t>
+    <t>t911-1.jpg</t>
+  </si>
+  <si>
+    <t>t912-1.jpg</t>
+  </si>
+  <si>
+    <t>t913-1.jpg</t>
+  </si>
+  <si>
+    <t>t914-1.jpg</t>
+  </si>
+  <si>
+    <t>t921-1.jpg</t>
+  </si>
+  <si>
+    <t>t922-1.jpg</t>
+  </si>
+  <si>
+    <t>t923-1.jpg</t>
+  </si>
+  <si>
+    <t>t924-1.jpg</t>
+  </si>
+  <si>
+    <t>t931-1.jpg</t>
+  </si>
+  <si>
+    <t>t932-1.jpg</t>
+  </si>
+  <si>
+    <t>t933-1.jpg</t>
+  </si>
+  <si>
+    <t>t934-1.jpg</t>
+  </si>
+  <si>
+    <t>t941-1.jpg</t>
+  </si>
+  <si>
+    <t>t942-1.jpg</t>
+  </si>
+  <si>
+    <t>t943-1.jpg</t>
+  </si>
+  <si>
+    <t>t944-1.jpg</t>
+  </si>
+  <si>
+    <t>t951-1.jpg</t>
+  </si>
+  <si>
+    <t>t952-1.jpg</t>
+  </si>
+  <si>
+    <t>t953-1.jpg</t>
+  </si>
+  <si>
+    <t>t954-1.jpg</t>
+  </si>
+  <si>
+    <t>t961-1.jpg</t>
+  </si>
+  <si>
+    <t>t962-1.jpg</t>
+  </si>
+  <si>
+    <t>t963-1.jpg</t>
+  </si>
+  <si>
+    <t>t964-1.jpg</t>
+  </si>
+  <si>
+    <t>t971-1.jpg</t>
+  </si>
+  <si>
+    <t>t972-1.jpg</t>
+  </si>
+  <si>
+    <t>t973-1.jpg</t>
+  </si>
+  <si>
+    <t>t974-1.jpg</t>
+  </si>
+  <si>
+    <t>t981-1.jpg</t>
+  </si>
+  <si>
+    <t>t982-1.jpg</t>
+  </si>
+  <si>
+    <t>t983-1.jpg</t>
+  </si>
+  <si>
+    <t>t984-1.jpg</t>
+  </si>
+  <si>
+    <t>t991-1.jpg</t>
+  </si>
+  <si>
+    <t>t992-1.jpg</t>
+  </si>
+  <si>
+    <t>t993-1.jpg</t>
+  </si>
+  <si>
+    <t>t994-1.jpg</t>
+  </si>
+  <si>
+    <t>t1001-1.jpg</t>
+  </si>
+  <si>
+    <t>t1002-1.jpg</t>
+  </si>
+  <si>
+    <t>t1003-1.jpg</t>
+  </si>
+  <si>
+    <t>t1004-1.jpg</t>
+  </si>
+  <si>
+    <t>t1011-1.jpg</t>
+  </si>
+  <si>
+    <t>t1012-1.jpg</t>
+  </si>
+  <si>
+    <t>t1013-1.jpg</t>
+  </si>
+  <si>
+    <t>t1014-1.jpg</t>
+  </si>
+  <si>
+    <t>t1021-1.jpg</t>
+  </si>
+  <si>
+    <t>t1022-1.jpg</t>
+  </si>
+  <si>
+    <t>t1023-1.jpg</t>
+  </si>
+  <si>
+    <t>t1024-1.jpg</t>
+  </si>
+  <si>
+    <t>t1031-1.jpg</t>
+  </si>
+  <si>
+    <t>t1032-1.jpg</t>
+  </si>
+  <si>
+    <t>t1033-1.jpg</t>
+  </si>
+  <si>
+    <t>t1034-1.jpg</t>
+  </si>
+  <si>
+    <t>t1041-1.jpg</t>
+  </si>
+  <si>
+    <t>t1042-1.jpg</t>
+  </si>
+  <si>
+    <t>t1043-1.jpg</t>
+  </si>
+  <si>
+    <t>t1044-1.jpg</t>
+  </si>
+  <si>
+    <t>t1051-1.jpg</t>
+  </si>
+  <si>
+    <t>t1052-1.jpg</t>
+  </si>
+  <si>
+    <t>t1053-1.jpg</t>
+  </si>
+  <si>
+    <t>t1054-1.jpg</t>
+  </si>
+  <si>
+    <t>t1061-1.jpg</t>
+  </si>
+  <si>
+    <t>t1062-1.jpg</t>
+  </si>
+  <si>
+    <t>t1063-1.jpg</t>
+  </si>
+  <si>
+    <t>t1064-1.jpg</t>
+  </si>
+  <si>
+    <t>t1071-1.jpg</t>
+  </si>
+  <si>
+    <t>t1072-1.jpg</t>
+  </si>
+  <si>
+    <t>t1073-1.jpg</t>
+  </si>
+  <si>
+    <t>t1074-1.jpg</t>
+  </si>
+  <si>
+    <t>t1081-1.jpg</t>
+  </si>
+  <si>
+    <t>t1082-1.jpg</t>
+  </si>
+  <si>
+    <t>t1083-1.jpg</t>
+  </si>
+  <si>
+    <t>t1084-1.jpg</t>
+  </si>
+  <si>
+    <t>t1091-1.jpg</t>
+  </si>
+  <si>
+    <t>t1092-1.jpg</t>
+  </si>
+  <si>
+    <t>t1093-1.jpg</t>
+  </si>
+  <si>
+    <t>t1094-1.jpg</t>
+  </si>
+  <si>
+    <t>t1101-1.jpg</t>
+  </si>
+  <si>
+    <t>t1102-1.jpg</t>
+  </si>
+  <si>
+    <t>t1103-1.jpg</t>
+  </si>
+  <si>
+    <t>t1104-1.jpg</t>
+  </si>
+  <si>
+    <t>t1111-1.jpg</t>
+  </si>
+  <si>
+    <t>t1112-1.jpg</t>
+  </si>
+  <si>
+    <t>t1113-1.jpg</t>
+  </si>
+  <si>
+    <t>t1114-1.jpg</t>
+  </si>
+  <si>
+    <t>t1121-1.jpg</t>
+  </si>
+  <si>
+    <t>t1122-1.jpg</t>
+  </si>
+  <si>
+    <t>t1123-1.jpg</t>
+  </si>
+  <si>
+    <t>t1124-1.jpg</t>
+  </si>
+  <si>
+    <t>t1131-1.jpg</t>
+  </si>
+  <si>
+    <t>t1132-1.jpg</t>
+  </si>
+  <si>
+    <t>t1133-1.jpg</t>
+  </si>
+  <si>
+    <t>t1134-1.jpg</t>
+  </si>
+  <si>
+    <t>t1141-1.jpg</t>
+  </si>
+  <si>
+    <t>t1142-1.jpg</t>
+  </si>
+  <si>
+    <t>t1143-1.jpg</t>
+  </si>
+  <si>
+    <t>t1144-1.jpg</t>
+  </si>
+  <si>
+    <t>t1151-1.jpg</t>
+  </si>
+  <si>
+    <t>t1152-1.jpg</t>
+  </si>
+  <si>
+    <t>t1153-1.jpg</t>
+  </si>
+  <si>
+    <t>t1154-1.jpg</t>
+  </si>
+  <si>
+    <t>t1161-1.jpg</t>
+  </si>
+  <si>
+    <t>t1162-1.jpg</t>
+  </si>
+  <si>
+    <t>t1163-1.jpg</t>
+  </si>
+  <si>
+    <t>t1164-1.jpg</t>
+  </si>
+  <si>
+    <t>t43-1.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>t911-1.jpg</t>
-  </si>
-  <si>
-    <t>t912-1.jpg</t>
-  </si>
-  <si>
-    <t>t913-1.jpg</t>
-  </si>
-  <si>
-    <t>t914-1.jpg</t>
-  </si>
-  <si>
-    <t>t921-1.jpg</t>
-  </si>
-  <si>
-    <t>t922-1.jpg</t>
-  </si>
-  <si>
-    <t>t923-1.jpg</t>
-  </si>
-  <si>
-    <t>t924-1.jpg</t>
-  </si>
-  <si>
-    <t>t931-1.jpg</t>
-  </si>
-  <si>
-    <t>t932-1.jpg</t>
-  </si>
-  <si>
-    <t>t933-1.jpg</t>
-  </si>
-  <si>
-    <t>t934-1.jpg</t>
-  </si>
-  <si>
-    <t>t941-1.jpg</t>
-  </si>
-  <si>
-    <t>t942-1.jpg</t>
-  </si>
-  <si>
-    <t>t943-1.jpg</t>
-  </si>
-  <si>
-    <t>t944-1.jpg</t>
-  </si>
-  <si>
-    <t>t951-1.jpg</t>
-  </si>
-  <si>
-    <t>t952-1.jpg</t>
-  </si>
-  <si>
-    <t>t953-1.jpg</t>
-  </si>
-  <si>
-    <t>t954-1.jpg</t>
-  </si>
-  <si>
-    <t>t961-1.jpg</t>
-  </si>
-  <si>
-    <t>t962-1.jpg</t>
-  </si>
-  <si>
-    <t>t963-1.jpg</t>
-  </si>
-  <si>
-    <t>t964-1.jpg</t>
-  </si>
-  <si>
-    <t>t971-1.jpg</t>
-  </si>
-  <si>
-    <t>t972-1.jpg</t>
-  </si>
-  <si>
-    <t>t973-1.jpg</t>
-  </si>
-  <si>
-    <t>t974-1.jpg</t>
-  </si>
-  <si>
-    <t>t981-1.jpg</t>
-  </si>
-  <si>
-    <t>t982-1.jpg</t>
-  </si>
-  <si>
-    <t>t983-1.jpg</t>
-  </si>
-  <si>
-    <t>t984-1.jpg</t>
-  </si>
-  <si>
-    <t>t991-1.jpg</t>
-  </si>
-  <si>
-    <t>t992-1.jpg</t>
-  </si>
-  <si>
-    <t>t993-1.jpg</t>
-  </si>
-  <si>
-    <t>t994-1.jpg</t>
-  </si>
-  <si>
-    <t>t1001-1.jpg</t>
-  </si>
-  <si>
-    <t>t1002-1.jpg</t>
-  </si>
-  <si>
-    <t>t1003-1.jpg</t>
-  </si>
-  <si>
-    <t>t1004-1.jpg</t>
-  </si>
-  <si>
-    <t>t1011-1.jpg</t>
-  </si>
-  <si>
-    <t>t1012-1.jpg</t>
-  </si>
-  <si>
-    <t>t1013-1.jpg</t>
-  </si>
-  <si>
-    <t>t1014-1.jpg</t>
-  </si>
-  <si>
-    <t>t1021-1.jpg</t>
-  </si>
-  <si>
-    <t>t1022-1.jpg</t>
-  </si>
-  <si>
-    <t>t1023-1.jpg</t>
-  </si>
-  <si>
-    <t>t1024-1.jpg</t>
-  </si>
-  <si>
-    <t>t1031-1.jpg</t>
-  </si>
-  <si>
-    <t>t1032-1.jpg</t>
-  </si>
-  <si>
-    <t>t1033-1.jpg</t>
-  </si>
-  <si>
-    <t>t1034-1.jpg</t>
-  </si>
-  <si>
-    <t>t1041-1.jpg</t>
-  </si>
-  <si>
-    <t>t1042-1.jpg</t>
-  </si>
-  <si>
-    <t>t1043-1.jpg</t>
-  </si>
-  <si>
-    <t>t1044-1.jpg</t>
-  </si>
-  <si>
-    <t>t1051-1.jpg</t>
-  </si>
-  <si>
-    <t>t1052-1.jpg</t>
-  </si>
-  <si>
-    <t>t1053-1.jpg</t>
-  </si>
-  <si>
-    <t>t1054-1.jpg</t>
-  </si>
-  <si>
-    <t>t1061-1.jpg</t>
-  </si>
-  <si>
-    <t>t1062-1.jpg</t>
-  </si>
-  <si>
-    <t>t1063-1.jpg</t>
-  </si>
-  <si>
-    <t>t1064-1.jpg</t>
-  </si>
-  <si>
-    <t>t1071-1.jpg</t>
-  </si>
-  <si>
-    <t>t1072-1.jpg</t>
-  </si>
-  <si>
-    <t>t1073-1.jpg</t>
-  </si>
-  <si>
-    <t>t1074-1.jpg</t>
-  </si>
-  <si>
-    <t>t1081-1.jpg</t>
-  </si>
-  <si>
-    <t>t1082-1.jpg</t>
-  </si>
-  <si>
-    <t>t1083-1.jpg</t>
-  </si>
-  <si>
-    <t>t1084-1.jpg</t>
-  </si>
-  <si>
-    <t>t1091-1.jpg</t>
-  </si>
-  <si>
-    <t>t1092-1.jpg</t>
-  </si>
-  <si>
-    <t>t1093-1.jpg</t>
-  </si>
-  <si>
-    <t>t1094-1.jpg</t>
-  </si>
-  <si>
-    <t>t1101-1.jpg</t>
-  </si>
-  <si>
-    <t>t1102-1.jpg</t>
-  </si>
-  <si>
-    <t>t1103-1.jpg</t>
-  </si>
-  <si>
-    <t>t1104-1.jpg</t>
-  </si>
-  <si>
-    <t>t1111-1.jpg</t>
-  </si>
-  <si>
-    <t>t1112-1.jpg</t>
-  </si>
-  <si>
-    <t>t1113-1.jpg</t>
-  </si>
-  <si>
-    <t>t1114-1.jpg</t>
-  </si>
-  <si>
-    <t>t1121-1.jpg</t>
-  </si>
-  <si>
-    <t>t1122-1.jpg</t>
-  </si>
-  <si>
-    <t>t1123-1.jpg</t>
-  </si>
-  <si>
-    <t>t1124-1.jpg</t>
-  </si>
-  <si>
-    <t>t1131-1.jpg</t>
-  </si>
-  <si>
-    <t>t1132-1.jpg</t>
-  </si>
-  <si>
-    <t>t1133-1.jpg</t>
-  </si>
-  <si>
-    <t>t1134-1.jpg</t>
-  </si>
-  <si>
-    <t>t1141-1.jpg</t>
-  </si>
-  <si>
-    <t>t1142-1.jpg</t>
-  </si>
-  <si>
-    <t>t1143-1.jpg</t>
-  </si>
-  <si>
-    <t>t1144-1.jpg</t>
-  </si>
-  <si>
-    <t>t1151-1.jpg</t>
-  </si>
-  <si>
-    <t>t1152-1.jpg</t>
-  </si>
-  <si>
-    <t>t1153-1.jpg</t>
-  </si>
-  <si>
-    <t>t1154-1.jpg</t>
-  </si>
-  <si>
-    <t>t1161-1.jpg</t>
-  </si>
-  <si>
-    <t>t1162-1.jpg</t>
-  </si>
-  <si>
-    <t>t1163-1.jpg</t>
-  </si>
-  <si>
-    <t>t1164-1.jpg</t>
-  </si>
-  <si>
-    <t>t43-1.jpg</t>
+    <t>block</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -964,7 +964,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1298,17 +1298,17 @@
   <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>198</v>
+        <v>303</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1397,7 +1397,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>18</v>
@@ -1406,7 +1406,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2226,521 +2226,521 @@
         <v>196</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>278</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>196</v>
@@ -2765,9 +2765,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>183</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>184</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>185</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>186</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>187</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>188</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>189</v>
       </c>

--- a/info/target_type.xlsx
+++ b/info/target_type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\yajuan_phd\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CDED6A-3C67-4972-8258-79A1D861FCE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C7B658-DE17-4EB7-8210-7F3411D8D0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,10 +19,19 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$72</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1295,14 +1304,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="2" max="2" width="14.265625" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1326,7 +1337,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1346,7 +1357,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1366,7 +1377,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1386,7 +1397,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1406,7 +1417,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1426,7 +1437,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1446,7 +1457,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1466,7 +1477,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1486,7 +1497,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1506,7 +1517,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1526,7 +1537,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1546,7 +1557,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1726,7 +1737,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1746,7 +1757,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1766,7 +1777,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1786,7 +1797,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1806,7 +1817,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1826,7 +1837,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1846,7 +1857,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1866,7 +1877,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1886,7 +1897,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1906,7 +1917,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1926,7 +1937,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1946,7 +1957,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1966,7 +1977,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1986,7 +1997,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2006,7 +2017,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2026,7 +2037,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2046,7 +2057,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2066,7 +2077,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2086,7 +2097,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2106,7 +2117,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2126,7 +2137,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2146,7 +2157,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2166,7 +2177,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2186,7 +2197,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2206,7 +2217,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2226,7 +2237,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2246,7 +2257,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2266,7 +2277,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2386,7 +2397,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2426,7 +2437,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2446,7 +2457,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2466,7 +2477,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2486,7 +2497,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2506,7 +2517,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2526,7 +2537,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2546,7 +2557,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2566,7 +2577,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2586,7 +2597,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2606,7 +2617,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2626,7 +2637,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2646,7 +2657,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2666,7 +2677,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2686,7 +2697,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2706,7 +2717,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2726,7 +2737,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2747,6 +2758,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F72" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="ema"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F2:F7" r:id="rId1" display="javascript:;" xr:uid="{E872A39A-756D-4DDB-8E2F-CFC1AD766014}"/>
